--- a/價格計算.xlsx
+++ b/價格計算.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swps9\OneDrive\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CFFEDA-9E52-4760-BD2C-C21E80EC4306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2A40E-FF69-4DAB-A2A2-516B53B70E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>WS2812B5050</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,11 +68,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9M</t>
+    <t>角鋼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效長寬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,8 +123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D7BD14-63B3-477E-9B8D-90A7E5616075}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -455,31 +462,56 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:5">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <f>ROUND(B2-2*D2, -2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C4">
+        <f>ROUND(C2-2*D2, -2)</f>
+        <v>800</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>

--- a/價格計算.xlsx
+++ b/價格計算.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2A40E-FF69-4DAB-A2A2-516B53B70E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778EB94-7200-4983-B2DC-65142314C62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="LED間隔0.5cm" sheetId="7" r:id="rId1"/>
+    <sheet name="LED間隔1cm " sheetId="6" r:id="rId2"/>
+    <sheet name="LED間隔2cm" sheetId="5" r:id="rId3"/>
+    <sheet name="LED間隔3cm" sheetId="4" r:id="rId4"/>
+    <sheet name="LED間隔5cm" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="50">
   <si>
     <t>WS2812B5050</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,12 +83,168 @@
     <t>立柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>天花板邊長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X軸數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y軸數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角鋼長度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角鋼數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角鋼總長度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED間隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位X軸LED數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位Y軸LED數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位LED總數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板面積</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密迪板(4尺*8尺)*10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcb板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電路加工費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB板大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼板大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總需要數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼板上數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>額外預備片數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>額外預備片數比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板總數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32 X軸數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32 Y軸數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32總數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS2812最大數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每片乘載LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每片需要pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED總數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32 掃描半徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32、天線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1U N8R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +259,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,12 +290,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,6 +315,4729 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8A3E-4840-91F0-71BAF141D82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8A3E-4840-91F0-71BAF141D82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8A3E-4840-91F0-71BAF141D82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8A3E-4840-91F0-71BAF141D82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8A3E-4840-91F0-71BAF141D82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8A3E-4840-91F0-71BAF141D82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔0.5cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔0.5cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>176904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12454.0416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8A3E-4840-91F0-71BAF141D82F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5DA2-4E5D-A130-D20397FF0A58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5DA2-4E5D-A130-D20397FF0A58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5DA2-4E5D-A130-D20397FF0A58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5DA2-4E5D-A130-D20397FF0A58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5DA2-4E5D-A130-D20397FF0A58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5DA2-4E5D-A130-D20397FF0A58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LED間隔1cm '!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LED間隔1cm '!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3113.5104000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5DA2-4E5D-A130-D20397FF0A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔2cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔2cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>778.37760000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3B1F-4182-8017-7539DA3D648E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔3cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔3cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.94560000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A305-4B79-B337-14E638AB1908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔5cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔5cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.5728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E89D-4823-80AC-827171DDBEF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767291</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B0A58D-1D80-4891-BC46-A8BCF2372F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767291</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF6A0C1-2C4D-4736-A106-69E8EB95AAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767291</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14D132C-90AB-4D6C-9B01-19303E645863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767291</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7859BED5-0054-4DA3-BE2A-AF750A948178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>687916</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61F1DF0-510E-454D-B47A-1BBE2623EFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,16 +5336,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D7BD14-63B3-477E-9B8D-90A7E5616075}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA143226-C0A0-4E95-B84F-8AB86B1BD93B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -468,8 +5381,26 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="B2" s="1">
         <v>1200</v>
       </c>
@@ -482,21 +5413,143 @@
       <c r="E2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <f>I22/2</f>
+        <v>7200</v>
+      </c>
+      <c r="O2">
+        <f>B5</f>
+        <v>1100</v>
+      </c>
+      <c r="P2">
+        <f>H5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>O2*P2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <f>ROUND(B2-2*D2, -2)</f>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5">
+        <f>ROUNDDOWN(B2-2*D2, -2)</f>
         <v>1100</v>
       </c>
-      <c r="C4">
-        <f>ROUND(C2-2*D2, -2)</f>
+      <c r="C5">
+        <f>ROUNDDOWN(C2-2*D2, -2)</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G5">
+        <f>ROUNDDOWN(B5/G2, 0)</f>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(C5/G2, 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <f>ROUNDUP((B5-K2)/(K2*2), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>ROUNDUP((C5-K2)/(K2*2), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="G7">
+        <f>I5*G2*G2</f>
+        <v>842400</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(I5*H7,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>ROUNDUP(I18/M5,-1)</f>
+        <v>53490</v>
+      </c>
+      <c r="L7">
+        <f>ROUNDUP(K7/L2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>ROUNDUP(M5*(1+H7),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -509,15 +5562,1971 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f>I5+I7</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10">
+        <f>G20</f>
+        <v>3538080</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(B10*C10,0)</f>
+        <v>176904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f>ROUNDUP(I9/8/10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>B11*C11</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B12*C12</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f>G20</f>
+        <v>3538080</v>
+      </c>
+      <c r="E13">
+        <f>B13*C13</f>
+        <v>12454.0416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1600</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>C14*B14</f>
+        <v>1600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <f>M7</f>
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <f>C15*B15</f>
+        <v>12060</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E10:E15)</f>
+        <v>234218.0416</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="G18">
+        <f>G5*G22</f>
+        <v>2160</v>
+      </c>
+      <c r="H18">
+        <f>H22*H5</f>
+        <v>1560</v>
+      </c>
+      <c r="I18">
+        <f>G18*H18</f>
+        <v>3369600</v>
+      </c>
+      <c r="K18">
+        <f>L15*L15/K15</f>
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <f>ROUNDUP(G20/K18,-1)</f>
+        <v>35390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20">
+        <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
+        <v>3538080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="G22">
+        <f>G2/G15</f>
+        <v>120</v>
+      </c>
+      <c r="H22">
+        <f>G2/G15</f>
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <f>G22*H22</f>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6919E5-D101-4B94-AE16-800776264026}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <f>I22/2</f>
+        <v>1800</v>
+      </c>
+      <c r="O2">
+        <f>B5</f>
+        <v>1100</v>
+      </c>
+      <c r="P2">
+        <f>H5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>O2*P2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5">
+        <f>ROUNDDOWN(B2-2*D2, -2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C5">
+        <f>ROUNDDOWN(C2-2*D2, -2)</f>
+        <v>800</v>
+      </c>
+      <c r="G5">
+        <f>ROUNDDOWN(B5/G2, 0)</f>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(C5/G2, 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <f>ROUNDUP((B5-K2)/(K2*2), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>ROUNDUP((C5-K2)/(K2*2), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="G7">
+        <f>I5*G2*G2</f>
+        <v>842400</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(I5*H7,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>ROUNDUP(I18/M5,-1)</f>
+        <v>13380</v>
+      </c>
+      <c r="L7">
+        <f>ROUNDUP(K7/L2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>ROUNDUP(M5*(1+H7),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f>I5+I7</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.08</v>
+      </c>
+      <c r="C10">
+        <f>G20</f>
+        <v>884520</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(B10*C10,0)</f>
+        <v>70762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f>ROUNDUP(I9/8/10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>B11*C11</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B12*C12</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f>G20</f>
+        <v>884520</v>
+      </c>
+      <c r="E13">
+        <f>B13*C13</f>
+        <v>3113.5104000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1600</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>C14*B14</f>
+        <v>1600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <f>M7</f>
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <f>C15*B15</f>
+        <v>12060</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E10:E15)</f>
+        <v>118735.5104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="G18">
+        <f>G5*G22</f>
+        <v>1080</v>
+      </c>
+      <c r="H18">
+        <f>H22*H5</f>
+        <v>780</v>
+      </c>
+      <c r="I18">
+        <f>G18*H18</f>
+        <v>842400</v>
+      </c>
+      <c r="K18">
+        <f>L15*L15/K15</f>
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <f>ROUNDUP(G20/K18,-1)</f>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20">
+        <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
+        <v>884520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="G22">
+        <f>G2/G15</f>
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <f>G2/G15</f>
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <f>G22*H22</f>
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F242FC0-6DED-4924-9434-D9B56F9F48C3}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <f>I22/2</f>
+        <v>450</v>
+      </c>
+      <c r="O2">
+        <f>B5</f>
+        <v>1100</v>
+      </c>
+      <c r="P2">
+        <f>H5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>O2*P2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5">
+        <f>ROUNDDOWN(B2-2*D2, -2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C5">
+        <f>ROUNDDOWN(C2-2*D2, -2)</f>
+        <v>800</v>
+      </c>
+      <c r="G5">
+        <f>ROUNDDOWN(B5/G2, 0)</f>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(C5/G2, 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <f>ROUNDUP((B5-K2)/(K2*2), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>ROUNDUP((C5-K2)/(K2*2), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="G7">
+        <f>I5*G2*G2</f>
+        <v>842400</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(I5*H7,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>ROUNDUP(I18/M5,-1)</f>
+        <v>3350</v>
+      </c>
+      <c r="L7">
+        <f>ROUNDUP(K7/L2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>ROUNDUP(M5*(1+H7),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f>I5+I7</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <f>G20</f>
+        <v>221130</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(B10*C10,0)</f>
+        <v>66339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f>ROUNDUP(I9/8/10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>B11*C11</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B12*C12</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f>G20</f>
+        <v>221130</v>
+      </c>
+      <c r="E13">
+        <f>B13*C13</f>
+        <v>778.37760000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1600</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>C14*B14</f>
+        <v>1600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <f>M7</f>
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <f>C15*B15</f>
+        <v>12060</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E10:E15)</f>
+        <v>111977.37760000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="G18">
+        <f>G5*G22</f>
+        <v>540</v>
+      </c>
+      <c r="H18">
+        <f>H22*H5</f>
+        <v>390</v>
+      </c>
+      <c r="I18">
+        <f>G18*H18</f>
+        <v>210600</v>
+      </c>
+      <c r="K18">
+        <f>L15*L15/K15</f>
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <f>ROUNDUP(G20/K18,-1)</f>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20">
+        <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
+        <v>221130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="G22">
+        <f>G2/G15</f>
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <f>G2/G15</f>
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <f>G22*H22</f>
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C236F8-9218-476A-8A8F-05D1C8DB1A4D}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <f>I22/2</f>
+        <v>200</v>
+      </c>
+      <c r="O2">
+        <f>B5</f>
+        <v>1100</v>
+      </c>
+      <c r="P2">
+        <f>H5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>O2*P2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5">
+        <f>ROUNDDOWN(B2-2*D2, -2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C5">
+        <f>ROUNDDOWN(C2-2*D2, -2)</f>
+        <v>800</v>
+      </c>
+      <c r="G5">
+        <f>ROUNDDOWN(B5/G2, 0)</f>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(C5/G2, 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <f>ROUNDUP((B5-K2)/(K2*2), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>ROUNDUP((C5-K2)/(K2*2), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="G7">
+        <f>I5*G2*G2</f>
+        <v>842400</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(I5*H7,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>ROUNDUP(I18/M5,-1)</f>
+        <v>1490</v>
+      </c>
+      <c r="L7">
+        <f>ROUNDUP(K7/L2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>ROUNDUP(M5*(1+H7),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f>I5+I7</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="C10">
+        <f>G20</f>
+        <v>98280</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(B10*C10,0)</f>
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f>ROUNDUP(I9/8/10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>B11*C11</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>12300</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B12*C12</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f>G20</f>
+        <v>98280</v>
+      </c>
+      <c r="E13">
+        <f>B13*C13</f>
+        <v>345.94560000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>C14*B14</f>
+        <v>1200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <f>M7</f>
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <f>C15*B15</f>
+        <v>12060</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E10:E15)</f>
+        <v>70938.945600000006</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="G18">
+        <f>G5*G22</f>
+        <v>360</v>
+      </c>
+      <c r="H18">
+        <f>H22*H5</f>
+        <v>260</v>
+      </c>
+      <c r="I18">
+        <f>G18*H18</f>
+        <v>93600</v>
+      </c>
+      <c r="K18">
+        <f>L15*L15/K15</f>
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <f>ROUNDUP(G20/K18,-1)</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20">
+        <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
+        <v>98280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="G22">
+        <f>G2/G15</f>
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <f>G2/G15</f>
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f>G22*H22</f>
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D7BD14-63B3-477E-9B8D-90A7E5616075}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <f>I22/2</f>
+        <v>72</v>
+      </c>
+      <c r="O2">
+        <f>B5</f>
+        <v>1100</v>
+      </c>
+      <c r="P2">
+        <f>H5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>O2*P2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5">
+        <f>ROUNDDOWN(B2-2*D2, -2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C5">
+        <f>ROUNDDOWN(C2-2*D2, -2)</f>
+        <v>800</v>
+      </c>
+      <c r="G5">
+        <f>ROUNDDOWN(B5/G2, 0)</f>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(C5/G2, 0)</f>
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <f>ROUNDUP((B5-K2)/(K2*2), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>ROUNDUP((C5-K2)/(K2*2), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="G7">
+        <f>I5*G2*G2</f>
+        <v>842400</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(I5*H7,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>ROUNDUP(I18/M5,-1)</f>
+        <v>540</v>
+      </c>
+      <c r="L7">
+        <f>ROUNDUP(K7/L2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>ROUNDUP(M5*(1+H7),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f>I5+I7</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.67</v>
+      </c>
+      <c r="C10">
+        <f>G20</f>
+        <v>35390</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(B10*C10,0)</f>
+        <v>23711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f>ROUNDUP(I9/8/10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>B11*C11</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>5200</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>B12*C12</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f>G20</f>
+        <v>35390</v>
+      </c>
+      <c r="E13">
+        <f>B13*C13</f>
+        <v>124.5728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>C14*B14</f>
+        <v>1100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <f>M7</f>
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <f>C15*B15</f>
+        <v>12060</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E10:E15)</f>
+        <v>43395.572800000002</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="G18">
+        <f>G5*G22</f>
+        <v>216</v>
+      </c>
+      <c r="H18">
+        <f>H22*H5</f>
+        <v>156</v>
+      </c>
+      <c r="I18">
+        <f>G18*H18</f>
+        <v>33696</v>
+      </c>
+      <c r="K18">
+        <f>L15*L15/K15</f>
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <f>ROUNDUP(G20/K18,-1)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20">
+        <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
+        <v>35390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="G22">
+        <f>G2/G15</f>
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <f>G2/G15</f>
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <f>G22*H22</f>
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/價格計算.xlsx
+++ b/價格計算.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778EB94-7200-4983-B2DC-65142314C62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84D517C-C6AF-4D76-989B-5F42BC84FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
   </bookViews>
   <sheets>
-    <sheet name="LED間隔0.5cm" sheetId="7" r:id="rId1"/>
-    <sheet name="LED間隔1cm " sheetId="6" r:id="rId2"/>
-    <sheet name="LED間隔2cm" sheetId="5" r:id="rId3"/>
-    <sheet name="LED間隔3cm" sheetId="4" r:id="rId4"/>
-    <sheet name="LED間隔5cm" sheetId="1" r:id="rId5"/>
+    <sheet name="LED間隔2cm" sheetId="5" r:id="rId1"/>
+    <sheet name="LED間隔3cm" sheetId="4" r:id="rId2"/>
+    <sheet name="LED間隔5cm" sheetId="1" r:id="rId3"/>
+    <sheet name="LED間隔0.5cm" sheetId="7" r:id="rId4"/>
+    <sheet name="LED間隔1cm " sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,6 +385,1063 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3B1F-4182-8017-7539DA3D648E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔2cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔2cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>778.37760000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3B1F-4182-8017-7539DA3D648E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A305-4B79-B337-14E638AB1908}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔3cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔3cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.94560000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A305-4B79-B337-14E638AB1908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19100551456162354"/>
+          <c:y val="0.12555911243025664"/>
+          <c:w val="0.6104099920359477"/>
+          <c:h val="0.76605026446259017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D687-4CCC-9230-08A61A7F1A5A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D687-4CCC-9230-08A61A7F1A5A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D687-4CCC-9230-08A61A7F1A5A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D687-4CCC-9230-08A61A7F1A5A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D687-4CCC-9230-08A61A7F1A5A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D687-4CCC-9230-08A61A7F1A5A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LED間隔5cm!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>WS2812B5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>密迪板(4尺*8尺)*10片</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pcb板</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>電容</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>電路加工費</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>esp32、天線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LED間隔5cm!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.5728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E89D-4823-80AC-827171DDBEF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8A3E-4840-91F0-71BAF141D82F}"/>
               </c:ext>
             </c:extLst>
@@ -666,7 +1723,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1015,1023 +2072,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3B1F-4182-8017-7539DA3D648E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3B1F-4182-8017-7539DA3D648E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-3B1F-4182-8017-7539DA3D648E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-3B1F-4182-8017-7539DA3D648E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-3B1F-4182-8017-7539DA3D648E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-3B1F-4182-8017-7539DA3D648E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>LED間隔2cm!$A$10:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>WS2812B5050</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>密迪板(4尺*8尺)*10片</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>pcb板</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>電容</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>電路加工費</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>esp32、天線</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>LED間隔2cm!$E$10:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>66339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>778.37760000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12060</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-3B1F-4182-8017-7539DA3D648E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A305-4B79-B337-14E638AB1908}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A305-4B79-B337-14E638AB1908}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A305-4B79-B337-14E638AB1908}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A305-4B79-B337-14E638AB1908}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-A305-4B79-B337-14E638AB1908}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-A305-4B79-B337-14E638AB1908}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>LED間隔3cm!$A$10:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>WS2812B5050</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>密迪板(4尺*8尺)*10片</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>pcb板</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>電容</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>電路加工費</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>esp32、天線</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>LED間隔3cm!$E$10:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>43833</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.94560000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12060</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A305-4B79-B337-14E638AB1908}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>LED間隔5cm!$A$10:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>WS2812B5050</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>密迪板(4尺*8尺)*10片</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>pcb板</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>電容</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>電路加工費</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>esp32、天線</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>LED間隔5cm!$E$10:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>23711</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.5728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12060</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E89D-4823-80AC-827171DDBEF0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4847,7 +4887,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B0A58D-1D80-4891-BC46-A8BCF2372F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14D132C-90AB-4D6C-9B01-19303E645863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4890,7 +4930,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF6A0C1-2C4D-4736-A106-69E8EB95AAEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7859BED5-0054-4DA3-BE2A-AF750A948178}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4918,28 +4958,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>767291</xdr:colOff>
+      <xdr:colOff>396874</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>115357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>687916</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
+        <xdr:cNvPr id="3" name="圖表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14D132C-90AB-4D6C-9B01-19303E645863}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61F1DF0-510E-454D-B47A-1BBE2623EFA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4976,7 +5014,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7859BED5-0054-4DA3-BE2A-AF750A948178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B0A58D-1D80-4891-BC46-A8BCF2372F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,26 +5042,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>396874</xdr:colOff>
+      <xdr:colOff>767291</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>115357</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>687916</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>52915</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61F1DF0-510E-454D-B47A-1BBE2623EFA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF6A0C1-2C4D-4736-A106-69E8EB95AAEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5336,33 +5376,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA143226-C0A0-4E95-B84F-8AB86B1BD93B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F242FC0-6DED-4924-9434-D9B56F9F48C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="126" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5421,7 +5461,7 @@
       </c>
       <c r="L2">
         <f>I22/2</f>
-        <v>7200</v>
+        <v>450</v>
       </c>
       <c r="O2">
         <f>B5</f>
@@ -5533,7 +5573,7 @@
       </c>
       <c r="K7">
         <f>ROUNDUP(I18/M5,-1)</f>
-        <v>53490</v>
+        <v>3350</v>
       </c>
       <c r="L7">
         <f>ROUNDUP(K7/L2,0)</f>
@@ -5575,15 +5615,15 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
         <f>G20</f>
-        <v>3538080</v>
+        <v>221130</v>
       </c>
       <c r="E10">
         <f>ROUND(B10*C10,0)</f>
-        <v>176904</v>
+        <v>66339</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5626,11 +5666,11 @@
       </c>
       <c r="C13">
         <f>G20</f>
-        <v>3538080</v>
+        <v>221130</v>
       </c>
       <c r="E13">
         <f>B13*C13</f>
-        <v>12454.0416</v>
+        <v>778.37760000000003</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5673,7 +5713,7 @@
         <v>12060</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5691,7 +5731,7 @@
       </c>
       <c r="E17">
         <f>SUM(E10:E15)</f>
-        <v>234218.0416</v>
+        <v>111977.37760000001</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -5712,15 +5752,15 @@
     <row r="18" spans="1:12">
       <c r="G18">
         <f>G5*G22</f>
-        <v>2160</v>
+        <v>540</v>
       </c>
       <c r="H18">
         <f>H22*H5</f>
-        <v>1560</v>
+        <v>390</v>
       </c>
       <c r="I18">
         <f>G18*H18</f>
-        <v>3369600</v>
+        <v>210600</v>
       </c>
       <c r="K18">
         <f>L15*L15/K15</f>
@@ -5728,7 +5768,7 @@
       </c>
       <c r="L18">
         <f>ROUNDUP(G20/K18,-1)</f>
-        <v>35390</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5739,7 +5779,7 @@
     <row r="20" spans="1:12">
       <c r="G20">
         <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
-        <v>3538080</v>
+        <v>221130</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5756,15 +5796,15 @@
     <row r="22" spans="1:12">
       <c r="G22">
         <f>G2/G15</f>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <f>G2/G15</f>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <f>G22*H22</f>
-        <v>14400</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -5776,32 +5816,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6919E5-D101-4B94-AE16-800776264026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C236F8-9218-476A-8A8F-05D1C8DB1A4D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="108" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5860,7 +5900,7 @@
       </c>
       <c r="L2">
         <f>I22/2</f>
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="O2">
         <f>B5</f>
@@ -5972,7 +6012,7 @@
       </c>
       <c r="K7">
         <f>ROUNDUP(I18/M5,-1)</f>
-        <v>13380</v>
+        <v>1490</v>
       </c>
       <c r="L7">
         <f>ROUNDUP(K7/L2,0)</f>
@@ -6014,15 +6054,15 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.08</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="C10">
         <f>G20</f>
-        <v>884520</v>
+        <v>98280</v>
       </c>
       <c r="E10">
         <f>ROUND(B10*C10,0)</f>
-        <v>70762</v>
+        <v>43833</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -6046,14 +6086,14 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>30000</v>
+        <v>12300</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12">
         <f>B12*C12</f>
-        <v>30000</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6065,11 +6105,11 @@
       </c>
       <c r="C13">
         <f>G20</f>
-        <v>884520</v>
+        <v>98280</v>
       </c>
       <c r="E13">
         <f>B13*C13</f>
-        <v>3113.5104000000001</v>
+        <v>345.94560000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6077,14 +6117,14 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
         <f>C14*B14</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -6112,7 +6152,7 @@
         <v>12060</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6130,7 +6170,7 @@
       </c>
       <c r="E17">
         <f>SUM(E10:E15)</f>
-        <v>118735.5104</v>
+        <v>70938.945600000006</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -6151,15 +6191,15 @@
     <row r="18" spans="1:12">
       <c r="G18">
         <f>G5*G22</f>
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="H18">
         <f>H22*H5</f>
-        <v>780</v>
+        <v>260</v>
       </c>
       <c r="I18">
         <f>G18*H18</f>
-        <v>842400</v>
+        <v>93600</v>
       </c>
       <c r="K18">
         <f>L15*L15/K15</f>
@@ -6167,7 +6207,7 @@
       </c>
       <c r="L18">
         <f>ROUNDUP(G20/K18,-1)</f>
-        <v>8850</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6178,7 +6218,7 @@
     <row r="20" spans="1:12">
       <c r="G20">
         <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
-        <v>884520</v>
+        <v>98280</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6195,15 +6235,15 @@
     <row r="22" spans="1:12">
       <c r="G22">
         <f>G2/G15</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H22">
         <f>G2/G15</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <f>G22*H22</f>
-        <v>3600</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6215,32 +6255,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F242FC0-6DED-4924-9434-D9B56F9F48C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D7BD14-63B3-477E-9B8D-90A7E5616075}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6299,7 +6339,7 @@
       </c>
       <c r="L2">
         <f>I22/2</f>
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="O2">
         <f>B5</f>
@@ -6411,7 +6451,7 @@
       </c>
       <c r="K7">
         <f>ROUNDUP(I18/M5,-1)</f>
-        <v>3350</v>
+        <v>540</v>
       </c>
       <c r="L7">
         <f>ROUNDUP(K7/L2,0)</f>
@@ -6453,15 +6493,15 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.67</v>
       </c>
       <c r="C10">
         <f>G20</f>
-        <v>221130</v>
+        <v>35390</v>
       </c>
       <c r="E10">
         <f>ROUND(B10*C10,0)</f>
-        <v>66339</v>
+        <v>23711</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -6485,14 +6525,14 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>30000</v>
+        <v>5200</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12">
         <f>B12*C12</f>
-        <v>30000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6504,11 +6544,11 @@
       </c>
       <c r="C13">
         <f>G20</f>
-        <v>221130</v>
+        <v>35390</v>
       </c>
       <c r="E13">
         <f>B13*C13</f>
-        <v>778.37760000000003</v>
+        <v>124.5728</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6516,14 +6556,14 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
         <f>C14*B14</f>
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -6551,7 +6591,7 @@
         <v>12060</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6569,7 +6609,7 @@
       </c>
       <c r="E17">
         <f>SUM(E10:E15)</f>
-        <v>111977.37760000001</v>
+        <v>43395.572800000002</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -6590,15 +6630,15 @@
     <row r="18" spans="1:12">
       <c r="G18">
         <f>G5*G22</f>
-        <v>540</v>
+        <v>216</v>
       </c>
       <c r="H18">
         <f>H22*H5</f>
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="I18">
         <f>G18*H18</f>
-        <v>210600</v>
+        <v>33696</v>
       </c>
       <c r="K18">
         <f>L15*L15/K15</f>
@@ -6606,7 +6646,7 @@
       </c>
       <c r="L18">
         <f>ROUNDUP(G20/K18,-1)</f>
-        <v>2220</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6617,7 +6657,7 @@
     <row r="20" spans="1:12">
       <c r="G20">
         <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
-        <v>221130</v>
+        <v>35390</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6634,15 +6674,15 @@
     <row r="22" spans="1:12">
       <c r="G22">
         <f>G2/G15</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <f>G2/G15</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22">
         <f>G22*H22</f>
-        <v>900</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6654,32 +6694,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C236F8-9218-476A-8A8F-05D1C8DB1A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA143226-C0A0-4E95-B84F-8AB86B1BD93B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6738,7 +6779,7 @@
       </c>
       <c r="L2">
         <f>I22/2</f>
-        <v>200</v>
+        <v>7200</v>
       </c>
       <c r="O2">
         <f>B5</f>
@@ -6850,7 +6891,7 @@
       </c>
       <c r="K7">
         <f>ROUNDUP(I18/M5,-1)</f>
-        <v>1490</v>
+        <v>53490</v>
       </c>
       <c r="L7">
         <f>ROUNDUP(K7/L2,0)</f>
@@ -6892,15 +6933,15 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.44600000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
         <f>G20</f>
-        <v>98280</v>
+        <v>3538080</v>
       </c>
       <c r="E10">
         <f>ROUND(B10*C10,0)</f>
-        <v>43833</v>
+        <v>176904</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -6924,14 +6965,14 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>12300</v>
+        <v>30000</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12">
         <f>B12*C12</f>
-        <v>12300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6943,11 +6984,11 @@
       </c>
       <c r="C13">
         <f>G20</f>
-        <v>98280</v>
+        <v>3538080</v>
       </c>
       <c r="E13">
         <f>B13*C13</f>
-        <v>345.94560000000001</v>
+        <v>12454.0416</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6955,14 +6996,14 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
         <f>C14*B14</f>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -6990,7 +7031,7 @@
         <v>12060</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7008,7 +7049,7 @@
       </c>
       <c r="E17">
         <f>SUM(E10:E15)</f>
-        <v>70938.945600000006</v>
+        <v>234218.0416</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -7029,15 +7070,15 @@
     <row r="18" spans="1:12">
       <c r="G18">
         <f>G5*G22</f>
-        <v>360</v>
+        <v>2160</v>
       </c>
       <c r="H18">
         <f>H22*H5</f>
-        <v>260</v>
+        <v>1560</v>
       </c>
       <c r="I18">
         <f>G18*H18</f>
-        <v>93600</v>
+        <v>3369600</v>
       </c>
       <c r="K18">
         <f>L15*L15/K15</f>
@@ -7045,7 +7086,7 @@
       </c>
       <c r="L18">
         <f>ROUNDUP(G20/K18,-1)</f>
-        <v>990</v>
+        <v>35390</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7056,7 +7097,7 @@
     <row r="20" spans="1:12">
       <c r="G20">
         <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
-        <v>98280</v>
+        <v>3538080</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -7073,15 +7114,15 @@
     <row r="22" spans="1:12">
       <c r="G22">
         <f>G2/G15</f>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H22">
         <f>G2/G15</f>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I22">
         <f>G22*H22</f>
-        <v>400</v>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>
@@ -7093,32 +7134,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D7BD14-63B3-477E-9B8D-90A7E5616075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6919E5-D101-4B94-AE16-800776264026}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7177,7 +7219,7 @@
       </c>
       <c r="L2">
         <f>I22/2</f>
-        <v>72</v>
+        <v>1800</v>
       </c>
       <c r="O2">
         <f>B5</f>
@@ -7289,7 +7331,7 @@
       </c>
       <c r="K7">
         <f>ROUNDUP(I18/M5,-1)</f>
-        <v>540</v>
+        <v>13380</v>
       </c>
       <c r="L7">
         <f>ROUNDUP(K7/L2,0)</f>
@@ -7331,15 +7373,15 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.67</v>
+        <v>0.08</v>
       </c>
       <c r="C10">
         <f>G20</f>
-        <v>35390</v>
+        <v>884520</v>
       </c>
       <c r="E10">
         <f>ROUND(B10*C10,0)</f>
-        <v>23711</v>
+        <v>70762</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -7363,14 +7405,14 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>5200</v>
+        <v>30000</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12">
         <f>B12*C12</f>
-        <v>5200</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -7382,11 +7424,11 @@
       </c>
       <c r="C13">
         <f>G20</f>
-        <v>35390</v>
+        <v>884520</v>
       </c>
       <c r="E13">
         <f>B13*C13</f>
-        <v>124.5728</v>
+        <v>3113.5104000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -7394,14 +7436,14 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
         <f>C14*B14</f>
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -7429,7 +7471,7 @@
         <v>12060</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7447,7 +7489,7 @@
       </c>
       <c r="E17">
         <f>SUM(E10:E15)</f>
-        <v>43395.572800000002</v>
+        <v>118735.5104</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -7468,15 +7510,15 @@
     <row r="18" spans="1:12">
       <c r="G18">
         <f>G5*G22</f>
-        <v>216</v>
+        <v>1080</v>
       </c>
       <c r="H18">
         <f>H22*H5</f>
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="I18">
         <f>G18*H18</f>
-        <v>33696</v>
+        <v>842400</v>
       </c>
       <c r="K18">
         <f>L15*L15/K15</f>
@@ -7484,7 +7526,7 @@
       </c>
       <c r="L18">
         <f>ROUNDUP(G20/K18,-1)</f>
-        <v>360</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7495,7 +7537,7 @@
     <row r="20" spans="1:12">
       <c r="G20">
         <f>ROUNDUP(G18*H18*(H7+1),-1)</f>
-        <v>35390</v>
+        <v>884520</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -7512,15 +7554,15 @@
     <row r="22" spans="1:12">
       <c r="G22">
         <f>G2/G15</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H22">
         <f>G2/G15</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <f>G22*H22</f>
-        <v>144</v>
+        <v>3600</v>
       </c>
     </row>
   </sheetData>

--- a/價格計算.xlsx
+++ b/價格計算.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84D517C-C6AF-4D76-989B-5F42BC84FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7810F42-68FA-4770-98EC-FC00E4A22CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
   </bookViews>
   <sheets>
     <sheet name="LED間隔2cm" sheetId="5" r:id="rId1"/>
     <sheet name="LED間隔3cm" sheetId="4" r:id="rId2"/>
     <sheet name="LED間隔5cm" sheetId="1" r:id="rId3"/>
-    <sheet name="LED間隔0.5cm" sheetId="7" r:id="rId4"/>
-    <sheet name="LED間隔1cm " sheetId="6" r:id="rId5"/>
+    <sheet name="P4" sheetId="8" r:id="rId4"/>
+    <sheet name="LED間隔0.5cm" sheetId="7" r:id="rId5"/>
+    <sheet name="LED間隔1cm " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="59">
   <si>
     <t>WS2812B5050</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +238,42 @@
   </si>
   <si>
     <t>ESP32-S3-WROOM-1U N8R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單片LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場地模組數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單片esp32控制數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp32總量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地長寬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUB75腳位數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6258,7 +6295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D7BD14-63B3-477E-9B8D-90A7E5616075}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -6694,6 +6731,191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE73DD-DF0A-48B7-A4AE-DCBB4403099C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2">
+        <v>1200</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="F2">
+        <v>25.6</v>
+      </c>
+      <c r="G2">
+        <v>12.8</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>L2*K2</f>
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <f>M2*H2</f>
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>ROUNDUP(D6/P2,0)</f>
+        <v>98</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <f>SQRT(P2)*K3</f>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <f>K2*F2</f>
+        <v>51.2</v>
+      </c>
+      <c r="L3">
+        <f>L2*G2</f>
+        <v>51.2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <f>SQRT(P2)*L3</f>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6">
+        <f>ROUNDDOWN(B2/K3,0)</f>
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <f>ROUNDDOWN(C2/L3,0)</f>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>391</v>
+      </c>
+      <c r="E6">
+        <f>D6*N2</f>
+        <v>156400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA143226-C0A0-4E95-B84F-8AB86B1BD93B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -7133,7 +7355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6919E5-D101-4B94-AE16-800776264026}">
   <dimension ref="A1:Q22"/>
   <sheetViews>

--- a/價格計算.xlsx
+++ b/價格計算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7810F42-68FA-4770-98EC-FC00E4A22CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4F33AC-C25C-4F3A-8FA1-BA61C8547C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
   </bookViews>
   <sheets>
     <sheet name="LED間隔2cm" sheetId="5" r:id="rId1"/>
@@ -5416,30 +5416,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F242FC0-6DED-4924-9434-D9B56F9F48C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="126" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="126" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5856,29 +5856,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C236F8-9218-476A-8A8F-05D1C8DB1A4D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="108" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6299,25 +6299,25 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6732,27 +6732,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE73DD-DF0A-48B7-A4AE-DCBB4403099C}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -6813,10 +6813,10 @@
         <v>900</v>
       </c>
       <c r="F2">
-        <v>25.6</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -6843,14 +6843,14 @@
       </c>
       <c r="Q2">
         <f>ROUNDUP(D6/P2,0)</f>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
         <v>6</v>
       </c>
       <c r="S2">
         <f>SQRT(P2)*K3</f>
-        <v>102.4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6859,18 +6859,18 @@
       </c>
       <c r="K3">
         <f>K2*F2</f>
-        <v>51.2</v>
+        <v>64</v>
       </c>
       <c r="L3">
         <f>L2*G2</f>
-        <v>51.2</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
         <v>7</v>
       </c>
       <c r="S3">
         <f>SQRT(P2)*L3</f>
-        <v>102.4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6893,19 +6893,43 @@
     <row r="6" spans="1:21">
       <c r="B6">
         <f>ROUNDDOWN(B2/K3,0)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <f>ROUNDDOWN(C2/L3,0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <f>B6*C6</f>
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="E6">
         <f>D6*N2</f>
-        <v>156400</v>
+        <v>100800</v>
+      </c>
+      <c r="J6">
+        <v>3.65E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="D7">
+        <f>D6*M2</f>
+        <v>2016</v>
+      </c>
+      <c r="J7">
+        <f>64*32*J6*4.5</f>
+        <v>33.638399999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="J8">
+        <f>33000/2400*4.5</f>
+        <v>61.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="J10">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6923,26 +6947,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7363,26 +7387,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">

--- a/價格計算.xlsx
+++ b/價格計算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4F33AC-C25C-4F3A-8FA1-BA61C8547C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1E2EA-ED3C-4F7A-9C33-DC2634766C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{D6D1EC37-0E77-49E0-A009-E3CFC35EA154}"/>
   </bookViews>
   <sheets>
     <sheet name="LED間隔2cm" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="61">
   <si>
     <t>WS2812B5050</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,11 +276,22 @@
     <t>HUB75腳位數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB/NTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -327,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5117,6 +5131,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6244860-F6DD-45BF-BF3D-772FC55261A3}" name="表格1" displayName="表格1" ref="P12:P13" totalsRowShown="0">
+  <autoFilter ref="P12:P13" xr:uid="{A6244860-F6DD-45BF-BF3D-772FC55261A3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C891BF8D-C574-464E-B80A-BD0775820C62}" name="Table"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -5420,26 +5444,26 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5860,25 +5884,25 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6299,25 +6323,25 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6732,27 +6756,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE73DD-DF0A-48B7-A4AE-DCBB4403099C}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -6819,7 +6843,8 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <f>30</f>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -6836,7 +6861,7 @@
       </c>
       <c r="N2">
         <f>M2*H2</f>
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="P2">
         <v>4</v>
@@ -6854,6 +6879,7 @@
       </c>
     </row>
     <row r="3" spans="1:21">
+      <c r="H3" s="3"/>
       <c r="J3" t="s">
         <v>52</v>
       </c>
@@ -6905,7 +6931,7 @@
       </c>
       <c r="E6">
         <f>D6*N2</f>
-        <v>100800</v>
+        <v>60480</v>
       </c>
       <c r="J6">
         <v>3.65E-3</v>
@@ -6932,10 +6958,23 @@
         <v>203</v>
       </c>
     </row>
+    <row r="12" spans="1:21">
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6947,26 +6986,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7387,26 +7426,26 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
